--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/techno/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8CAE6-0B84-5647-A337-C12173AB9C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987BFF7-FCF8-8240-A64D-7F021A07B809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="1740" windowWidth="27640" windowHeight="16940" xr2:uid="{6A3A7F63-B9B0-4541-B695-5AD16394A586}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{6A3A7F63-B9B0-4541-B695-5AD16394A586}"/>
   </bookViews>
   <sheets>
     <sheet name="horaire" sheetId="1" r:id="rId1"/>
@@ -68,18 +68,9 @@
     <t>Continuer votre projet</t>
   </si>
   <si>
-    <t>Présentation du [rapport à faire (sommatif)](rapport-de-techno.md). Sujet de la semaine</t>
-  </si>
-  <si>
     <t>Discussion sur le sujet de la semaine &lt;br/&gt; Continuer votre projet</t>
   </si>
   <si>
-    <t>Sujet de la semaine</t>
-  </si>
-  <si>
-    <t>Remise du rapport sur une technologie émergente &lt;br/&gt; Sujet de la semaine</t>
-  </si>
-  <si>
     <t>Présenter individuellement l'avancement de votre projet pour une rétroaction du professeur</t>
   </si>
   <si>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>Faire le [document d'approbation de projet](approbation-de-projet.md)</t>
+  </si>
+  <si>
+    <t>Présentation du [rapport à faire (sommatif)](rapport-de-techno.md). Sujet de la semaine : **Automatisation**</t>
+  </si>
+  <si>
+    <t>Sujet de la semaine : **Intelligence artificielle - Impacts sur le métier de programmeur**</t>
+  </si>
+  <si>
+    <t>Remise du rapport sur une technologie émergente &lt;br/&gt; Sujet de la semaine **Intelligence artificielle - Comment la pirater (jailbreak)**</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -558,7 +558,7 @@
         <v>45910.59375</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -586,10 +586,10 @@
         <v>45924.59375</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -600,10 +600,10 @@
         <v>45931.59375</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,10 +614,10 @@
         <v>45938.59375</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -712,10 +712,10 @@
         <v>45994.59375</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,10 +726,10 @@
         <v>46001.59375</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
